--- a/artfynd/A 61937-2022.xlsx
+++ b/artfynd/A 61937-2022.xlsx
@@ -2450,10 +2450,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111336038</v>
+        <v>111337850</v>
       </c>
       <c r="B17" t="n">
-        <v>96253</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2462,25 +2462,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>504</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2491,10 +2491,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>549625.1614441903</v>
+        <v>549695.6594417326</v>
       </c>
       <c r="R17" t="n">
-        <v>7004275.788168156</v>
+        <v>7004017.013898557</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2563,10 +2563,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111337343</v>
+        <v>111336113</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2579,21 +2579,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>549727.9287928357</v>
+        <v>549651.5405950209</v>
       </c>
       <c r="R18" t="n">
-        <v>7004214.099270299</v>
+        <v>7004267.154941834</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111336113</v>
+        <v>111337813</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2692,21 +2692,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>549651.5405950209</v>
+        <v>549700.3448335464</v>
       </c>
       <c r="R19" t="n">
-        <v>7004267.154941834</v>
+        <v>7004036.067456141</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2763,6 +2763,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2789,10 +2794,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111337707</v>
+        <v>111337759</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2801,25 +2806,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2830,10 +2835,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>549705.8447932284</v>
+        <v>549717.9984537691</v>
       </c>
       <c r="R20" t="n">
-        <v>7004061.00861726</v>
+        <v>7004065.262869562</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2902,10 +2907,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111337702</v>
+        <v>111337274</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2918,21 +2923,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2943,10 +2948,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>549723.1300350486</v>
+        <v>549771.062580543</v>
       </c>
       <c r="R21" t="n">
-        <v>7004114.150543886</v>
+        <v>7004204.820678852</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3015,10 +3020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111338753</v>
+        <v>111337155</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>96674</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3027,25 +3032,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>219880</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3056,10 +3061,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>549613.6355042638</v>
+        <v>549780.8143631967</v>
       </c>
       <c r="R22" t="n">
-        <v>7004171.671098326</v>
+        <v>7004218.076358073</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3128,10 +3133,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111337274</v>
+        <v>111337565</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3144,21 +3149,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3169,10 +3174,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>549771.062580543</v>
+        <v>549715.6348940523</v>
       </c>
       <c r="R23" t="n">
-        <v>7004204.820678852</v>
+        <v>7004160.131816954</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3354,7 +3359,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111337534</v>
+        <v>111338753</v>
       </c>
       <c r="B25" t="n">
         <v>78578</v>
@@ -3395,10 +3400,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>549727.6978484992</v>
+        <v>549613.6355042638</v>
       </c>
       <c r="R25" t="n">
-        <v>7004170.259585364</v>
+        <v>7004171.671098326</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3467,10 +3472,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111338251</v>
+        <v>111337534</v>
       </c>
       <c r="B26" t="n">
-        <v>96370</v>
+        <v>78578</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3479,25 +3484,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219847</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3580,10 +3585,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111338395</v>
+        <v>111336273</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3596,21 +3601,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3621,10 +3626,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>549687.3142575396</v>
+        <v>549684.3799834364</v>
       </c>
       <c r="R27" t="n">
-        <v>7004206.696234533</v>
+        <v>7004279.860827052</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3693,10 +3698,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111337416</v>
+        <v>111338251</v>
       </c>
       <c r="B28" t="n">
-        <v>94134</v>
+        <v>96370</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3705,25 +3710,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>53</v>
+        <v>219847</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3734,10 +3739,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>549746.0398758095</v>
+        <v>549727.6978484992</v>
       </c>
       <c r="R28" t="n">
-        <v>7004213.473991236</v>
+        <v>7004170.259585364</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3806,7 +3811,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111337617</v>
+        <v>111337775</v>
       </c>
       <c r="B29" t="n">
         <v>78578</v>
@@ -3847,10 +3852,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>549731.7759114051</v>
+        <v>549717.9984537691</v>
       </c>
       <c r="R29" t="n">
-        <v>7004140.495309836</v>
+        <v>7004065.262869562</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3919,10 +3924,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111337587</v>
+        <v>111336227</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3935,21 +3940,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3960,10 +3965,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>549715.6348940523</v>
+        <v>549658.0979739621</v>
       </c>
       <c r="R30" t="n">
-        <v>7004160.131816954</v>
+        <v>7004282.168564727</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4032,10 +4037,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111336273</v>
+        <v>111336335</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4048,21 +4053,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4073,10 +4078,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>549684.3799834364</v>
+        <v>549707.3631376704</v>
       </c>
       <c r="R31" t="n">
-        <v>7004279.860827052</v>
+        <v>7004286.088810139</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4145,10 +4150,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111336335</v>
+        <v>111337416</v>
       </c>
       <c r="B32" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4161,21 +4166,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4186,10 +4191,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>549707.3631376704</v>
+        <v>549746.0398758095</v>
       </c>
       <c r="R32" t="n">
-        <v>7004286.088810139</v>
+        <v>7004213.473991236</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4258,10 +4263,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111336228</v>
+        <v>111336038</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>96253</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4270,25 +4275,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>504</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4299,10 +4304,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>549658.0979739621</v>
+        <v>549625.1614441903</v>
       </c>
       <c r="R33" t="n">
-        <v>7004282.168564727</v>
+        <v>7004275.788168156</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4484,10 +4489,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111337732</v>
+        <v>111338395</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4500,21 +4505,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4525,10 +4530,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>549717.9984537691</v>
+        <v>549687.3142575396</v>
       </c>
       <c r="R35" t="n">
-        <v>7004065.262869562</v>
+        <v>7004206.696234533</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4597,10 +4602,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111337759</v>
+        <v>111337675</v>
       </c>
       <c r="B36" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4609,25 +4614,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4638,10 +4643,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>549717.9984537691</v>
+        <v>549723.1300350486</v>
       </c>
       <c r="R36" t="n">
-        <v>7004065.262869562</v>
+        <v>7004114.150543886</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4710,7 +4715,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111336392</v>
+        <v>111336447</v>
       </c>
       <c r="B37" t="n">
         <v>77515</v>
@@ -4751,10 +4756,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>549746.1391566205</v>
+        <v>549749.7920083915</v>
       </c>
       <c r="R37" t="n">
-        <v>7004295.271288151</v>
+        <v>7004234.319783674</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4823,7 +4828,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111337155</v>
+        <v>111337327</v>
       </c>
       <c r="B38" t="n">
         <v>96674</v>
@@ -4864,10 +4869,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>549780.8143631967</v>
+        <v>549727.9287928357</v>
       </c>
       <c r="R38" t="n">
-        <v>7004218.076358073</v>
+        <v>7004214.099270299</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4936,10 +4941,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111337327</v>
+        <v>111338802</v>
       </c>
       <c r="B39" t="n">
-        <v>96674</v>
+        <v>78578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4948,25 +4953,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>219880</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4977,10 +4982,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>549727.9287928357</v>
+        <v>549582.1286667091</v>
       </c>
       <c r="R39" t="n">
-        <v>7004214.099270299</v>
+        <v>7004219.543078575</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5049,10 +5054,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111336227</v>
+        <v>111337617</v>
       </c>
       <c r="B40" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5065,21 +5070,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5090,10 +5095,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>549658.0979739621</v>
+        <v>549731.7759114051</v>
       </c>
       <c r="R40" t="n">
-        <v>7004282.168564727</v>
+        <v>7004140.495309836</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5162,7 +5167,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111336447</v>
+        <v>111336392</v>
       </c>
       <c r="B41" t="n">
         <v>77515</v>
@@ -5203,10 +5208,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>549749.7920083915</v>
+        <v>549746.1391566205</v>
       </c>
       <c r="R41" t="n">
-        <v>7004234.319783674</v>
+        <v>7004295.271288151</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5275,10 +5280,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111337813</v>
+        <v>111337702</v>
       </c>
       <c r="B42" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5291,21 +5296,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5316,10 +5321,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>549700.3448335464</v>
+        <v>549723.1300350486</v>
       </c>
       <c r="R42" t="n">
-        <v>7004036.067456141</v>
+        <v>7004114.150543886</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5362,11 +5367,6 @@
       <c r="AB42" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5393,10 +5393,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111337675</v>
+        <v>111338057</v>
       </c>
       <c r="B43" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5405,25 +5405,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>549723.1300350486</v>
+        <v>549695.6594417326</v>
       </c>
       <c r="R43" t="n">
-        <v>7004114.150543886</v>
+        <v>7004017.013898557</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111337850</v>
+        <v>111337707</v>
       </c>
       <c r="B44" t="n">
         <v>78578</v>
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>549695.6594417326</v>
+        <v>549705.8447932284</v>
       </c>
       <c r="R44" t="n">
-        <v>7004017.013898557</v>
+        <v>7004061.00861726</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5619,10 +5619,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111338057</v>
+        <v>111336614</v>
       </c>
       <c r="B45" t="n">
-        <v>96348</v>
+        <v>85715</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5631,25 +5631,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>510</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5660,10 +5660,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>549695.6594417326</v>
+        <v>549795.3823130414</v>
       </c>
       <c r="R45" t="n">
-        <v>7004017.013898557</v>
+        <v>7004183.051039582</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111338802</v>
+        <v>111336228</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5748,21 +5748,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5773,10 +5773,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>549582.1286667091</v>
+        <v>549658.0979739621</v>
       </c>
       <c r="R46" t="n">
-        <v>7004219.543078575</v>
+        <v>7004282.168564727</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111336124</v>
+        <v>111337343</v>
       </c>
       <c r="B47" t="n">
         <v>77515</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>549639.3390683155</v>
+        <v>549727.9287928357</v>
       </c>
       <c r="R47" t="n">
-        <v>7004266.063804692</v>
+        <v>7004214.099270299</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111336614</v>
+        <v>111336124</v>
       </c>
       <c r="B48" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5974,21 +5974,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5999,10 +5999,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>549795.3823130414</v>
+        <v>549639.3390683155</v>
       </c>
       <c r="R48" t="n">
-        <v>7004183.051039582</v>
+        <v>7004266.063804692</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6071,10 +6071,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111342736</v>
+        <v>111343511</v>
       </c>
       <c r="B49" t="n">
-        <v>96674</v>
+        <v>78578</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6083,25 +6083,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>219880</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>549447.1702291399</v>
+        <v>549768.2237563633</v>
       </c>
       <c r="R49" t="n">
-        <v>7004196.688548212</v>
+        <v>7004271.660066182</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6184,10 +6184,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111343076</v>
+        <v>111343343</v>
       </c>
       <c r="B50" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6196,25 +6196,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6225,10 +6225,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>549465.4679211122</v>
+        <v>549668.6522002188</v>
       </c>
       <c r="R50" t="n">
-        <v>7004183.862762679</v>
+        <v>7004184.265558192</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6297,10 +6297,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111343511</v>
+        <v>111343126</v>
       </c>
       <c r="B51" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6309,25 +6309,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6338,10 +6338,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>549768.2237563633</v>
+        <v>549592.8283332227</v>
       </c>
       <c r="R51" t="n">
-        <v>7004271.660066182</v>
+        <v>7004141.525011718</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111343126</v>
+        <v>111342984</v>
       </c>
       <c r="B52" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6422,25 +6422,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6451,10 +6451,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>549592.8283332227</v>
+        <v>549369.0277540553</v>
       </c>
       <c r="R52" t="n">
-        <v>7004141.525011718</v>
+        <v>7004216.734669155</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111343423</v>
+        <v>111343076</v>
       </c>
       <c r="B54" t="n">
-        <v>73688</v>
+        <v>89405</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6648,25 +6648,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>492</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6677,10 +6677,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>549780.8143631967</v>
+        <v>549465.4679211122</v>
       </c>
       <c r="R54" t="n">
-        <v>7004218.076358073</v>
+        <v>7004183.862762679</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6749,10 +6749,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111343523</v>
+        <v>111342736</v>
       </c>
       <c r="B55" t="n">
-        <v>78578</v>
+        <v>96674</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6761,25 +6761,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>219880</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6790,10 +6790,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>549746.6117757267</v>
+        <v>549447.1702291399</v>
       </c>
       <c r="R55" t="n">
-        <v>7004264.548898073</v>
+        <v>7004196.688548212</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6862,10 +6862,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111342984</v>
+        <v>111343423</v>
       </c>
       <c r="B56" t="n">
-        <v>78578</v>
+        <v>73688</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6874,25 +6874,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>492</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>549369.0277540553</v>
+        <v>549780.8143631967</v>
       </c>
       <c r="R56" t="n">
-        <v>7004216.734669155</v>
+        <v>7004218.076358073</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6975,10 +6975,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111343343</v>
+        <v>111343523</v>
       </c>
       <c r="B57" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6987,25 +6987,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>549668.6522002188</v>
+        <v>549746.6117757267</v>
       </c>
       <c r="R57" t="n">
-        <v>7004184.265558192</v>
+        <v>7004264.548898073</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>

--- a/artfynd/A 61937-2022.xlsx
+++ b/artfynd/A 61937-2022.xlsx
@@ -2450,7 +2450,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111337850</v>
+        <v>111336113</v>
       </c>
       <c r="B17" t="n">
         <v>78578</v>
@@ -2491,10 +2491,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>549695.6594417326</v>
+        <v>549651.5405950209</v>
       </c>
       <c r="R17" t="n">
-        <v>7004017.013898557</v>
+        <v>7004267.154941834</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2563,10 +2563,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111336113</v>
+        <v>111336124</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2579,21 +2579,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>549651.5405950209</v>
+        <v>549639.3390683155</v>
       </c>
       <c r="R18" t="n">
-        <v>7004267.154941834</v>
+        <v>7004266.063804692</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111337813</v>
+        <v>111337617</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2692,21 +2692,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>549700.3448335464</v>
+        <v>549731.7759114051</v>
       </c>
       <c r="R19" t="n">
-        <v>7004036.067456141</v>
+        <v>7004140.495309836</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2763,11 +2763,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2794,10 +2789,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111337759</v>
+        <v>111336614</v>
       </c>
       <c r="B20" t="n">
-        <v>78605</v>
+        <v>85715</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2806,25 +2801,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>510</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2835,10 +2830,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>549717.9984537691</v>
+        <v>549795.3823130414</v>
       </c>
       <c r="R20" t="n">
-        <v>7004065.262869562</v>
+        <v>7004183.051039582</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2907,10 +2902,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111337274</v>
+        <v>111337732</v>
       </c>
       <c r="B21" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2923,21 +2918,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2948,10 +2943,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>549771.062580543</v>
+        <v>549717.9984537691</v>
       </c>
       <c r="R21" t="n">
-        <v>7004204.820678852</v>
+        <v>7004065.262869562</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3020,10 +3015,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111337155</v>
+        <v>111338251</v>
       </c>
       <c r="B22" t="n">
-        <v>96674</v>
+        <v>96370</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,21 +3031,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219880</v>
+        <v>219847</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3061,10 +3056,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>549780.8143631967</v>
+        <v>549727.6978484992</v>
       </c>
       <c r="R22" t="n">
-        <v>7004218.076358073</v>
+        <v>7004170.259585364</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3133,10 +3128,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111337565</v>
+        <v>111337274</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3149,21 +3144,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3174,10 +3169,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>549715.6348940523</v>
+        <v>549771.062580543</v>
       </c>
       <c r="R23" t="n">
-        <v>7004160.131816954</v>
+        <v>7004204.820678852</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3246,7 +3241,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111336211</v>
+        <v>111337702</v>
       </c>
       <c r="B24" t="n">
         <v>78578</v>
@@ -3287,10 +3282,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>549658.0979739621</v>
+        <v>549723.1300350486</v>
       </c>
       <c r="R24" t="n">
-        <v>7004282.168564727</v>
+        <v>7004114.150543886</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3359,10 +3354,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111338753</v>
+        <v>111337587</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3375,21 +3370,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3400,10 +3395,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>549613.6355042638</v>
+        <v>549715.6348940523</v>
       </c>
       <c r="R25" t="n">
-        <v>7004171.671098326</v>
+        <v>7004160.131816954</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3472,10 +3467,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111337534</v>
+        <v>111337416</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3488,21 +3483,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3513,10 +3508,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>549727.6978484992</v>
+        <v>549746.0398758095</v>
       </c>
       <c r="R26" t="n">
-        <v>7004170.259585364</v>
+        <v>7004213.473991236</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3585,7 +3580,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111336273</v>
+        <v>111336392</v>
       </c>
       <c r="B27" t="n">
         <v>77515</v>
@@ -3626,10 +3621,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>549684.3799834364</v>
+        <v>549746.1391566205</v>
       </c>
       <c r="R27" t="n">
-        <v>7004279.860827052</v>
+        <v>7004295.271288151</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3698,10 +3693,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111338251</v>
+        <v>111337534</v>
       </c>
       <c r="B28" t="n">
-        <v>96370</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3710,25 +3705,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>219847</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3811,7 +3806,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111337775</v>
+        <v>111337850</v>
       </c>
       <c r="B29" t="n">
         <v>78578</v>
@@ -3852,10 +3847,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>549717.9984537691</v>
+        <v>549695.6594417326</v>
       </c>
       <c r="R29" t="n">
-        <v>7004065.262869562</v>
+        <v>7004017.013898557</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3924,10 +3919,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111336227</v>
+        <v>111336038</v>
       </c>
       <c r="B30" t="n">
-        <v>89686</v>
+        <v>96253</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3936,25 +3931,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>658</v>
+        <v>504</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3965,10 +3960,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>549658.0979739621</v>
+        <v>549625.1614441903</v>
       </c>
       <c r="R30" t="n">
-        <v>7004282.168564727</v>
+        <v>7004275.788168156</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4037,10 +4032,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111336335</v>
+        <v>111338395</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4053,21 +4048,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4078,10 +4073,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>549707.3631376704</v>
+        <v>549687.3142575396</v>
       </c>
       <c r="R31" t="n">
-        <v>7004286.088810139</v>
+        <v>7004206.696234533</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4150,10 +4145,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111337416</v>
+        <v>111337813</v>
       </c>
       <c r="B32" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4166,21 +4161,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4191,10 +4186,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>549746.0398758095</v>
+        <v>549700.3448335464</v>
       </c>
       <c r="R32" t="n">
-        <v>7004213.473991236</v>
+        <v>7004036.067456141</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4237,6 +4232,11 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4263,10 +4263,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111336038</v>
+        <v>111336227</v>
       </c>
       <c r="B33" t="n">
-        <v>96253</v>
+        <v>89686</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4275,25 +4275,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>504</v>
+        <v>658</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>549625.1614441903</v>
+        <v>549658.0979739621</v>
       </c>
       <c r="R33" t="n">
-        <v>7004275.788168156</v>
+        <v>7004282.168564727</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111337584</v>
+        <v>111337707</v>
       </c>
       <c r="B34" t="n">
         <v>78578</v>
@@ -4417,10 +4417,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>549715.6348940523</v>
+        <v>549705.8447932284</v>
       </c>
       <c r="R34" t="n">
-        <v>7004160.131816954</v>
+        <v>7004061.00861726</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111338395</v>
+        <v>111336228</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4505,21 +4505,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>549687.3142575396</v>
+        <v>549658.0979739621</v>
       </c>
       <c r="R35" t="n">
-        <v>7004206.696234533</v>
+        <v>7004282.168564727</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4602,10 +4602,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111337675</v>
+        <v>111337584</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4618,21 +4618,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4643,10 +4643,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>549723.1300350486</v>
+        <v>549715.6348940523</v>
       </c>
       <c r="R36" t="n">
-        <v>7004114.150543886</v>
+        <v>7004160.131816954</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4715,10 +4715,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111336447</v>
+        <v>111337327</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>96674</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4727,25 +4727,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>219880</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4756,10 +4756,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>549749.7920083915</v>
+        <v>549727.9287928357</v>
       </c>
       <c r="R37" t="n">
-        <v>7004234.319783674</v>
+        <v>7004214.099270299</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111337327</v>
+        <v>111338753</v>
       </c>
       <c r="B38" t="n">
-        <v>96674</v>
+        <v>78578</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4840,25 +4840,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>219880</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4869,10 +4869,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>549727.9287928357</v>
+        <v>549613.6355042638</v>
       </c>
       <c r="R38" t="n">
-        <v>7004214.099270299</v>
+        <v>7004171.671098326</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4941,10 +4941,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111338802</v>
+        <v>111336273</v>
       </c>
       <c r="B39" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4957,21 +4957,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4982,10 +4982,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>549582.1286667091</v>
+        <v>549684.3799834364</v>
       </c>
       <c r="R39" t="n">
-        <v>7004219.543078575</v>
+        <v>7004279.860827052</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111337617</v>
+        <v>111338802</v>
       </c>
       <c r="B40" t="n">
         <v>78578</v>
@@ -5095,10 +5095,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>549731.7759114051</v>
+        <v>549582.1286667091</v>
       </c>
       <c r="R40" t="n">
-        <v>7004140.495309836</v>
+        <v>7004219.543078575</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5167,10 +5167,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111336392</v>
+        <v>111337759</v>
       </c>
       <c r="B41" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5179,25 +5179,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5208,10 +5208,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>549746.1391566205</v>
+        <v>549717.9984537691</v>
       </c>
       <c r="R41" t="n">
-        <v>7004295.271288151</v>
+        <v>7004065.262869562</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5280,10 +5280,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111337702</v>
+        <v>111337675</v>
       </c>
       <c r="B42" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5296,21 +5296,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5393,10 +5393,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111338057</v>
+        <v>111337343</v>
       </c>
       <c r="B43" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5405,25 +5405,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>549695.6594417326</v>
+        <v>549727.9287928357</v>
       </c>
       <c r="R43" t="n">
-        <v>7004017.013898557</v>
+        <v>7004214.099270299</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111337707</v>
+        <v>111337155</v>
       </c>
       <c r="B44" t="n">
-        <v>78578</v>
+        <v>96674</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5518,25 +5518,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>219880</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>549705.8447932284</v>
+        <v>549780.8143631967</v>
       </c>
       <c r="R44" t="n">
-        <v>7004061.00861726</v>
+        <v>7004218.076358073</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5619,10 +5619,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111336614</v>
+        <v>111336447</v>
       </c>
       <c r="B45" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5635,21 +5635,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5660,10 +5660,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>549795.3823130414</v>
+        <v>549749.7920083915</v>
       </c>
       <c r="R45" t="n">
-        <v>7004183.051039582</v>
+        <v>7004234.319783674</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111336228</v>
+        <v>111336211</v>
       </c>
       <c r="B46" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5748,21 +5748,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5845,10 +5845,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111337343</v>
+        <v>111338057</v>
       </c>
       <c r="B47" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5857,25 +5857,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>549727.9287928357</v>
+        <v>549695.6594417326</v>
       </c>
       <c r="R47" t="n">
-        <v>7004214.099270299</v>
+        <v>7004017.013898557</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111336124</v>
+        <v>111336335</v>
       </c>
       <c r="B48" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5974,21 +5974,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5999,10 +5999,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>549639.3390683155</v>
+        <v>549707.3631376704</v>
       </c>
       <c r="R48" t="n">
-        <v>7004266.063804692</v>
+        <v>7004286.088810139</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6071,10 +6071,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111343511</v>
+        <v>111342736</v>
       </c>
       <c r="B49" t="n">
-        <v>78578</v>
+        <v>96674</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6083,25 +6083,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>219880</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>549768.2237563633</v>
+        <v>549447.1702291399</v>
       </c>
       <c r="R49" t="n">
-        <v>7004271.660066182</v>
+        <v>7004196.688548212</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6184,10 +6184,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111343343</v>
+        <v>111343126</v>
       </c>
       <c r="B50" t="n">
-        <v>90087</v>
+        <v>89845</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6196,25 +6196,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3298</v>
+        <v>1209</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6225,10 +6225,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>549668.6522002188</v>
+        <v>549592.8283332227</v>
       </c>
       <c r="R50" t="n">
-        <v>7004184.265558192</v>
+        <v>7004141.525011718</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6297,10 +6297,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111343126</v>
+        <v>111343423</v>
       </c>
       <c r="B51" t="n">
-        <v>89845</v>
+        <v>73688</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6313,21 +6313,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1209</v>
+        <v>492</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6338,10 +6338,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>549592.8283332227</v>
+        <v>549780.8143631967</v>
       </c>
       <c r="R51" t="n">
-        <v>7004141.525011718</v>
+        <v>7004218.076358073</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111342984</v>
+        <v>111343511</v>
       </c>
       <c r="B52" t="n">
         <v>78578</v>
@@ -6451,10 +6451,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>549369.0277540553</v>
+        <v>549768.2237563633</v>
       </c>
       <c r="R52" t="n">
-        <v>7004216.734669155</v>
+        <v>7004271.660066182</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6749,10 +6749,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111342736</v>
+        <v>111343523</v>
       </c>
       <c r="B55" t="n">
-        <v>96674</v>
+        <v>78578</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6761,25 +6761,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>219880</v>
+        <v>6458</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6790,10 +6790,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>549447.1702291399</v>
+        <v>549746.6117757267</v>
       </c>
       <c r="R55" t="n">
-        <v>7004196.688548212</v>
+        <v>7004264.548898073</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6862,10 +6862,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111343423</v>
+        <v>111343343</v>
       </c>
       <c r="B56" t="n">
-        <v>73688</v>
+        <v>90087</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6874,25 +6874,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>492</v>
+        <v>3298</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>549780.8143631967</v>
+        <v>549668.6522002188</v>
       </c>
       <c r="R56" t="n">
-        <v>7004218.076358073</v>
+        <v>7004184.265558192</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111343523</v>
+        <v>111342984</v>
       </c>
       <c r="B57" t="n">
         <v>78578</v>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>549746.6117757267</v>
+        <v>549369.0277540553</v>
       </c>
       <c r="R57" t="n">
-        <v>7004264.548898073</v>
+        <v>7004216.734669155</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>

--- a/artfynd/A 61937-2022.xlsx
+++ b/artfynd/A 61937-2022.xlsx
@@ -2450,10 +2450,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111336113</v>
+        <v>111337565</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2466,21 +2466,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2491,10 +2491,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>549651.5405950209</v>
+        <v>549715.6348940523</v>
       </c>
       <c r="R17" t="n">
-        <v>7004267.154941834</v>
+        <v>7004160.131816954</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2563,10 +2563,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111336124</v>
+        <v>111337534</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2579,21 +2579,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>549639.3390683155</v>
+        <v>549727.6978484992</v>
       </c>
       <c r="R18" t="n">
-        <v>7004266.063804692</v>
+        <v>7004170.259585364</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111337617</v>
+        <v>111338395</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2692,21 +2692,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>549731.7759114051</v>
+        <v>549687.3142575396</v>
       </c>
       <c r="R19" t="n">
-        <v>7004140.495309836</v>
+        <v>7004206.696234533</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2789,10 +2789,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111336614</v>
+        <v>111336392</v>
       </c>
       <c r="B20" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2805,21 +2805,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>549795.3823130414</v>
+        <v>549746.1391566205</v>
       </c>
       <c r="R20" t="n">
-        <v>7004183.051039582</v>
+        <v>7004295.271288151</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111337732</v>
+        <v>111336113</v>
       </c>
       <c r="B21" t="n">
         <v>78578</v>
@@ -2943,10 +2943,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>549717.9984537691</v>
+        <v>549651.5405950209</v>
       </c>
       <c r="R21" t="n">
-        <v>7004065.262869562</v>
+        <v>7004267.154941834</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111338251</v>
+        <v>111337617</v>
       </c>
       <c r="B22" t="n">
-        <v>96370</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3027,25 +3027,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219847</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3056,10 +3056,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>549727.6978484992</v>
+        <v>549731.7759114051</v>
       </c>
       <c r="R22" t="n">
-        <v>7004170.259585364</v>
+        <v>7004140.495309836</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3128,10 +3128,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111337274</v>
+        <v>111337813</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3144,21 +3144,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3169,10 +3169,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>549771.062580543</v>
+        <v>549700.3448335464</v>
       </c>
       <c r="R23" t="n">
-        <v>7004204.820678852</v>
+        <v>7004036.067456141</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3215,6 +3215,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3241,10 +3246,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111337702</v>
+        <v>111337343</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3257,21 +3262,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3282,10 +3287,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>549723.1300350486</v>
+        <v>549727.9287928357</v>
       </c>
       <c r="R24" t="n">
-        <v>7004114.150543886</v>
+        <v>7004214.099270299</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3354,10 +3359,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111337587</v>
+        <v>111337707</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3370,21 +3375,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3395,10 +3400,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>549715.6348940523</v>
+        <v>549705.8447932284</v>
       </c>
       <c r="R25" t="n">
-        <v>7004160.131816954</v>
+        <v>7004061.00861726</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3467,10 +3472,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111337416</v>
+        <v>111336335</v>
       </c>
       <c r="B26" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3483,21 +3488,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3508,10 +3513,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>549746.0398758095</v>
+        <v>549707.3631376704</v>
       </c>
       <c r="R26" t="n">
-        <v>7004213.473991236</v>
+        <v>7004286.088810139</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3580,10 +3585,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111336392</v>
+        <v>111338057</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3592,25 +3597,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3621,10 +3626,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>549746.1391566205</v>
+        <v>549695.6594417326</v>
       </c>
       <c r="R27" t="n">
-        <v>7004295.271288151</v>
+        <v>7004017.013898557</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3693,10 +3698,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111337534</v>
+        <v>111336227</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3709,21 +3714,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3734,10 +3739,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>549727.6978484992</v>
+        <v>549658.0979739621</v>
       </c>
       <c r="R28" t="n">
-        <v>7004170.259585364</v>
+        <v>7004282.168564727</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3919,10 +3924,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111336038</v>
+        <v>111336211</v>
       </c>
       <c r="B30" t="n">
-        <v>96253</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3931,25 +3936,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>504</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3960,10 +3965,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>549625.1614441903</v>
+        <v>549658.0979739621</v>
       </c>
       <c r="R30" t="n">
-        <v>7004275.788168156</v>
+        <v>7004282.168564727</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4032,7 +4037,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111338395</v>
+        <v>111337274</v>
       </c>
       <c r="B31" t="n">
         <v>89405</v>
@@ -4073,10 +4078,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>549687.3142575396</v>
+        <v>549771.062580543</v>
       </c>
       <c r="R31" t="n">
-        <v>7004206.696234533</v>
+        <v>7004204.820678852</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4145,10 +4150,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111337813</v>
+        <v>111337155</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>96674</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4157,25 +4162,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>219880</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4186,10 +4191,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>549700.3448335464</v>
+        <v>549780.8143631967</v>
       </c>
       <c r="R32" t="n">
-        <v>7004036.067456141</v>
+        <v>7004218.076358073</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4232,11 +4237,6 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4263,10 +4263,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111336227</v>
+        <v>111337732</v>
       </c>
       <c r="B33" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4279,21 +4279,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>549658.0979739621</v>
+        <v>549717.9984537691</v>
       </c>
       <c r="R33" t="n">
-        <v>7004282.168564727</v>
+        <v>7004065.262869562</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4376,10 +4376,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111337707</v>
+        <v>111336124</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4392,21 +4392,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4417,10 +4417,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>549705.8447932284</v>
+        <v>549639.3390683155</v>
       </c>
       <c r="R34" t="n">
-        <v>7004061.00861726</v>
+        <v>7004266.063804692</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111336228</v>
+        <v>111337675</v>
       </c>
       <c r="B35" t="n">
         <v>77515</v>
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>549658.0979739621</v>
+        <v>549723.1300350486</v>
       </c>
       <c r="R35" t="n">
-        <v>7004282.168564727</v>
+        <v>7004114.150543886</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111337584</v>
+        <v>111338753</v>
       </c>
       <c r="B36" t="n">
         <v>78578</v>
@@ -4643,10 +4643,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>549715.6348940523</v>
+        <v>549613.6355042638</v>
       </c>
       <c r="R36" t="n">
-        <v>7004160.131816954</v>
+        <v>7004171.671098326</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4715,10 +4715,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111337327</v>
+        <v>111336273</v>
       </c>
       <c r="B37" t="n">
-        <v>96674</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4727,25 +4727,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>219880</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4756,10 +4756,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>549727.9287928357</v>
+        <v>549684.3799834364</v>
       </c>
       <c r="R37" t="n">
-        <v>7004214.099270299</v>
+        <v>7004279.860827052</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111338753</v>
+        <v>111337327</v>
       </c>
       <c r="B38" t="n">
-        <v>78578</v>
+        <v>96674</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4840,25 +4840,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>219880</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4869,10 +4869,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>549613.6355042638</v>
+        <v>549727.9287928357</v>
       </c>
       <c r="R38" t="n">
-        <v>7004171.671098326</v>
+        <v>7004214.099270299</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4941,10 +4941,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111336273</v>
+        <v>111337759</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4953,25 +4953,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4982,10 +4982,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>549684.3799834364</v>
+        <v>549717.9984537691</v>
       </c>
       <c r="R39" t="n">
-        <v>7004279.860827052</v>
+        <v>7004065.262869562</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111338802</v>
+        <v>111337702</v>
       </c>
       <c r="B40" t="n">
         <v>78578</v>
@@ -5095,10 +5095,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>549582.1286667091</v>
+        <v>549723.1300350486</v>
       </c>
       <c r="R40" t="n">
-        <v>7004219.543078575</v>
+        <v>7004114.150543886</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5167,10 +5167,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111337759</v>
+        <v>111337584</v>
       </c>
       <c r="B41" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5179,25 +5179,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5208,10 +5208,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>549717.9984537691</v>
+        <v>549715.6348940523</v>
       </c>
       <c r="R41" t="n">
-        <v>7004065.262869562</v>
+        <v>7004160.131816954</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5280,10 +5280,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111337675</v>
+        <v>111338251</v>
       </c>
       <c r="B42" t="n">
-        <v>77515</v>
+        <v>96370</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5292,25 +5292,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>219847</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>549723.1300350486</v>
+        <v>549727.6978484992</v>
       </c>
       <c r="R42" t="n">
-        <v>7004114.150543886</v>
+        <v>7004170.259585364</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5393,10 +5393,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111337343</v>
+        <v>111338802</v>
       </c>
       <c r="B43" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5409,21 +5409,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>549727.9287928357</v>
+        <v>549582.1286667091</v>
       </c>
       <c r="R43" t="n">
-        <v>7004214.099270299</v>
+        <v>7004219.543078575</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111337155</v>
+        <v>111336447</v>
       </c>
       <c r="B44" t="n">
-        <v>96674</v>
+        <v>77515</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5518,25 +5518,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>219880</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>549780.8143631967</v>
+        <v>549749.7920083915</v>
       </c>
       <c r="R44" t="n">
-        <v>7004218.076358073</v>
+        <v>7004234.319783674</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5619,10 +5619,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111336447</v>
+        <v>111336038</v>
       </c>
       <c r="B45" t="n">
-        <v>77515</v>
+        <v>96253</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5631,25 +5631,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>504</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5660,10 +5660,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>549749.7920083915</v>
+        <v>549625.1614441903</v>
       </c>
       <c r="R45" t="n">
-        <v>7004234.319783674</v>
+        <v>7004275.788168156</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111336211</v>
+        <v>111337416</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5748,21 +5748,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5773,10 +5773,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>549658.0979739621</v>
+        <v>549746.0398758095</v>
       </c>
       <c r="R46" t="n">
-        <v>7004282.168564727</v>
+        <v>7004213.473991236</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5845,10 +5845,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111338057</v>
+        <v>111336614</v>
       </c>
       <c r="B47" t="n">
-        <v>96348</v>
+        <v>85715</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5857,25 +5857,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>510</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>549695.6594417326</v>
+        <v>549795.3823130414</v>
       </c>
       <c r="R47" t="n">
-        <v>7004017.013898557</v>
+        <v>7004183.051039582</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111336335</v>
+        <v>111336228</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5974,21 +5974,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5999,10 +5999,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>549707.3631376704</v>
+        <v>549658.0979739621</v>
       </c>
       <c r="R48" t="n">
-        <v>7004286.088810139</v>
+        <v>7004282.168564727</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6071,10 +6071,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111342736</v>
+        <v>111343343</v>
       </c>
       <c r="B49" t="n">
-        <v>96674</v>
+        <v>90087</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6087,21 +6087,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>219880</v>
+        <v>3298</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>549447.1702291399</v>
+        <v>549668.6522002188</v>
       </c>
       <c r="R49" t="n">
-        <v>7004196.688548212</v>
+        <v>7004184.265558192</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6184,10 +6184,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111343126</v>
+        <v>111343423</v>
       </c>
       <c r="B50" t="n">
-        <v>89845</v>
+        <v>73688</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6200,21 +6200,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1209</v>
+        <v>492</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6225,10 +6225,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>549592.8283332227</v>
+        <v>549780.8143631967</v>
       </c>
       <c r="R50" t="n">
-        <v>7004141.525011718</v>
+        <v>7004218.076358073</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6297,10 +6297,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111343423</v>
+        <v>111343076</v>
       </c>
       <c r="B51" t="n">
-        <v>73688</v>
+        <v>89405</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6309,25 +6309,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>492</v>
+        <v>1202</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6338,10 +6338,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>549780.8143631967</v>
+        <v>549465.4679211122</v>
       </c>
       <c r="R51" t="n">
-        <v>7004218.076358073</v>
+        <v>7004183.862762679</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111343511</v>
+        <v>111343126</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6422,25 +6422,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6451,10 +6451,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>549768.2237563633</v>
+        <v>549592.8283332227</v>
       </c>
       <c r="R52" t="n">
-        <v>7004271.660066182</v>
+        <v>7004141.525011718</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6523,7 +6523,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111342489</v>
+        <v>111343523</v>
       </c>
       <c r="B53" t="n">
         <v>78578</v>
@@ -6564,10 +6564,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>549579.2110328446</v>
+        <v>549746.6117757267</v>
       </c>
       <c r="R53" t="n">
-        <v>7004203.229387118</v>
+        <v>7004264.548898073</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111343076</v>
+        <v>111342489</v>
       </c>
       <c r="B54" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6652,21 +6652,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6677,10 +6677,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>549465.4679211122</v>
+        <v>549579.2110328446</v>
       </c>
       <c r="R54" t="n">
-        <v>7004183.862762679</v>
+        <v>7004203.229387118</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111343523</v>
+        <v>111343511</v>
       </c>
       <c r="B55" t="n">
         <v>78578</v>
@@ -6790,10 +6790,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>549746.6117757267</v>
+        <v>549768.2237563633</v>
       </c>
       <c r="R55" t="n">
-        <v>7004264.548898073</v>
+        <v>7004271.660066182</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6862,10 +6862,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111343343</v>
+        <v>111342984</v>
       </c>
       <c r="B56" t="n">
-        <v>90087</v>
+        <v>78578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6874,25 +6874,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3298</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>549668.6522002188</v>
+        <v>549369.0277540553</v>
       </c>
       <c r="R56" t="n">
-        <v>7004184.265558192</v>
+        <v>7004216.734669155</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6975,10 +6975,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111342984</v>
+        <v>111342736</v>
       </c>
       <c r="B57" t="n">
-        <v>78578</v>
+        <v>96674</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6987,25 +6987,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>219880</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>549369.0277540553</v>
+        <v>549447.1702291399</v>
       </c>
       <c r="R57" t="n">
-        <v>7004216.734669155</v>
+        <v>7004196.688548212</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
